--- a/me-docs/32.Xay-dung-Admin-quan-tri-tin-tuc-tong-hop-RSS.xlsx
+++ b/me-docs/32.Xay-dung-Admin-quan-tri-tin-tuc-tong-hop-RSS.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0168FBEA-32E8-4E44-9BEB-F3183A095A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F486058-99F5-4F6E-8BB4-C11F65039431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
+    <sheet name="RSS Admin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>php artisan make:migration create_rss_table</t>
   </si>
@@ -52,6 +53,54 @@
   </si>
   <si>
     <t>Check database</t>
+  </si>
+  <si>
+    <t>routes\web.php</t>
+  </si>
+  <si>
+    <t>app\Http\Controllers\Admin\RssController.php Copy from SliderController then edit code</t>
+  </si>
+  <si>
+    <t>app\Models\RssModel.php Copy from SliderModel then edit code</t>
+  </si>
+  <si>
+    <t>getItem method bỏ 'get-thumb'</t>
+  </si>
+  <si>
+    <t>saveItem method bỏ thumb</t>
+  </si>
+  <si>
+    <t>deleteItem method bỏ thumb</t>
+  </si>
+  <si>
+    <t>app\Http\Requests\RssRequest.php Copy From SliderRequest then edit code</t>
+  </si>
+  <si>
+    <t>resources\views\admin\pages\rss Copy from slider then edit code</t>
+  </si>
+  <si>
+    <t>resources\views\admin\pages\rss\index.blade.php</t>
+  </si>
+  <si>
+    <t>resources\views\admin\pages\rss\list.blade.php</t>
+  </si>
+  <si>
+    <t>resources\views\admin\elements\sidebar_menu.blade.php</t>
+  </si>
+  <si>
+    <t>config\zvn.php</t>
+  </si>
+  <si>
+    <t>resources\views\admin\pages\rss\form.blade.php</t>
+  </si>
+  <si>
+    <t>listItems method 'admin-list-items'</t>
+  </si>
+  <si>
+    <t>Check browser</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
 </sst>
 </file>
@@ -452,6 +501,1067 @@
         <a:xfrm>
           <a:off x="609600" y="18288000"/>
           <a:ext cx="11304762" cy="2647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>96631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7820D31E-AB3F-5A30-C99B-BF1D2B6161D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="381001"/>
+          <a:ext cx="11144250" cy="2763630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>141867</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E805FB3-C2CD-7827-24C4-8F6EC3F0C94B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3429000"/>
+          <a:ext cx="8066667" cy="3838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>129541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CA339D0-F608-2416-C5CD-716FD67DB3E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7620000"/>
+          <a:ext cx="10829925" cy="5082541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>8609</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>171190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFDD873E-8758-C7C6-66FE-17518EFF6464}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12954000"/>
+          <a:ext cx="7323809" cy="2076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>370209</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>66309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79A89069-5B91-9AFE-A921-12D3461C31BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="15430500"/>
+          <a:ext cx="10123809" cy="2923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>94095</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>8976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A37EE0DC-0B3A-26E1-2C02-4CF99A24546F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="18669000"/>
+          <a:ext cx="9238095" cy="4390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>8533</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>171214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F11EF8-4468-D3AD-5E29-AAFBF64D15F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="23431500"/>
+          <a:ext cx="7933333" cy="1885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>484876</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>171190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7669988-C37C-D0F7-F175-4EEAB447542F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="27051000"/>
+          <a:ext cx="7190476" cy="2076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>65524</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>113833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3B8559-4E19-65D2-D1A0-851146F6D3F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="29337000"/>
+          <a:ext cx="9209524" cy="3733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>75276</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>180667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC84770E-33BC-A364-B26C-CF51152325E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="33147000"/>
+          <a:ext cx="7390476" cy="2466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609295</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>94881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{342C7BAF-FCDF-668F-02DB-263DA8003EF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="36004500"/>
+          <a:ext cx="2438095" cy="2952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>608533</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>171214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62CC5B37-C8A9-4C11-5777-2C52B86AC517}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="39433500"/>
+          <a:ext cx="8533333" cy="1885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>84724</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>56738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61204E2C-1DB5-AED4-E2B4-6B28537F1ACF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="41719500"/>
+          <a:ext cx="8009524" cy="3295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>284343</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>180309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D868DE48-EA35-7BC0-FC63-3CB384870972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="45148500"/>
+          <a:ext cx="11257143" cy="5323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>160838</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>171262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59CB1437-6020-4004-2D06-003378CCA046}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="50673000"/>
+          <a:ext cx="8695238" cy="1504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>93867</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>161738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F884D3B1-4F33-F378-0A2B-2F7EE7365F1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="52578000"/>
+          <a:ext cx="11066667" cy="1495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>65828</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>171262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD9CE97-9299-1F38-59A1-698D3D7F026D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="54483000"/>
+          <a:ext cx="6771428" cy="1504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>446705</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>28095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{154E4F12-FCA3-04D9-A9E3-591DFC1DA961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="56197500"/>
+          <a:ext cx="7761905" cy="3838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>170057</xdr:colOff>
+      <xdr:row>332</xdr:row>
+      <xdr:rowOff>133000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D30AC6A-2697-F072-2E30-7979A7975D7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="60579000"/>
+          <a:ext cx="11142857" cy="2800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>503467</xdr:colOff>
+      <xdr:row>360</xdr:row>
+      <xdr:rowOff>189857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3C4205-7028-8C4B-5A2E-66116EB90260}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="63627000"/>
+          <a:ext cx="10866667" cy="5142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>446552</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>133214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3605FD5F-05AB-D282-3FC5-1700FD9C77E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="25527000"/>
+          <a:ext cx="8980952" cy="1085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>363</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>385</xdr:row>
+      <xdr:rowOff>68501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3970F4C7-A298-D0CC-297B-E11A02E3C263}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="69151500"/>
+          <a:ext cx="10858500" cy="4259501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>387</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>415</xdr:row>
+      <xdr:rowOff>164405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01489F69-1448-F167-2E02-4A79F1AEF4F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="73723500"/>
+          <a:ext cx="11458575" cy="5498405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>417</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>93943</xdr:colOff>
+      <xdr:row>441</xdr:row>
+      <xdr:rowOff>37524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA9414BE-02C3-A240-C5F2-01D615660149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="79438500"/>
+          <a:ext cx="10457143" cy="4609524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -728,7 +1838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
@@ -783,4 +1893,100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65745ADB-16D8-4A05-98BF-ADA6049B0AED}">
+  <dimension ref="A2:B387"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="B444" sqref="B444"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B387" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>